--- a/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6152A7-C260-471C-A98F-C4008EF35E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF95D63C-2607-4529-B12A-7765BD0CEF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{66FBFAE0-0BB7-4C24-94CF-370E746242B5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5F251499-5253-4337-8D71-BD08CD9C61EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>90,38%</t>
   </si>
   <si>
@@ -101,9 +206,6 @@
     <t>92,41%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>9,62%</t>
   </si>
   <si>
@@ -131,64 +233,61 @@
     <t>12,18%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,105 +347,6 @@
     <t>10,98%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
     <t>92,02%</t>
   </si>
   <si>
@@ -398,6 +398,108 @@
     <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
   </si>
   <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
     <t>90,98%</t>
   </si>
   <si>
@@ -440,58 +542,46 @@
     <t>9,96%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>93,0%</t>
@@ -542,96 +632,6 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
     <t>90,59%</t>
   </si>
   <si>
@@ -689,6 +689,102 @@
     <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
   </si>
   <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
     <t>92,68%</t>
   </si>
   <si>
@@ -737,52 +833,52 @@
     <t>11,86%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>88,86%</t>
@@ -833,102 +929,6 @@
     <t>13,18%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
     <t>90,29%</t>
   </si>
   <si>
@@ -986,6 +986,90 @@
     <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
   </si>
   <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
     <t>92,27%</t>
   </si>
   <si>
@@ -1022,52 +1106,58 @@
     <t>8,7%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>94,46%</t>
@@ -1116,96 +1206,6 @@
   </si>
   <si>
     <t>6,85%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
   </si>
   <si>
     <t>93,99%</t>
@@ -1651,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E973D5-F0AC-44E7-A000-65680094678C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6518DC6-2A13-4DD2-AE1F-4A85ADFE8514}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1769,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>182721</v>
+        <v>22248</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1784,10 +1784,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>167587</v>
+        <v>20152</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1796,73 +1796,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>55</v>
+      </c>
+      <c r="N4" s="7">
+        <v>42400</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>546</v>
-      </c>
-      <c r="N4" s="7">
-        <v>350308</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7">
-        <v>19456</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1858</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17544</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1858</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>57</v>
-      </c>
-      <c r="N5" s="7">
-        <v>37000</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,54 +1871,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>202177</v>
+        <v>22248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>185131</v>
+        <v>22010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>603</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>387308</v>
+        <v>44258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1930,13 +1930,13 @@
         <v>110955</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -1945,13 +1945,13 @@
         <v>95926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -1960,19 +1960,19 @@
         <v>206880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>13</v>
@@ -1981,13 +1981,13 @@
         <v>8221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -1996,13 +1996,13 @@
         <v>9738</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -2011,13 +2011,13 @@
         <v>17959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2032,13 @@
         <v>119176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>158</v>
@@ -2047,13 +2047,13 @@
         <v>105664</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>339</v>
@@ -2062,117 +2062,117 @@
         <v>224839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D10" s="7">
-        <v>178800</v>
+        <v>182721</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>268</v>
+      </c>
+      <c r="I10" s="7">
+        <v>167587</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>546</v>
+      </c>
+      <c r="N10" s="7">
+        <v>350308</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>239</v>
-      </c>
-      <c r="I10" s="7">
-        <v>182755</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>503</v>
-      </c>
-      <c r="N10" s="7">
-        <v>361555</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>16272</v>
+        <v>19456</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>28</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17544</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>57</v>
+      </c>
+      <c r="N11" s="7">
+        <v>37000</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16092</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>44</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32364</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,150 +2181,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D12" s="7">
-        <v>195072</v>
+        <v>202177</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="I12" s="7">
-        <v>198847</v>
+        <v>185131</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="N12" s="7">
-        <v>393919</v>
+        <v>387308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>22248</v>
+        <v>128721</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I13" s="7">
-        <v>20152</v>
+        <v>121252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="N13" s="7">
-        <v>42400</v>
+        <v>249973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>10138</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8946</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1858</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>31</v>
+      </c>
+      <c r="N14" s="7">
+        <v>19084</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1858</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>82</v>
@@ -2336,49 +2336,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="D15" s="7">
-        <v>22248</v>
+        <v>138859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="I15" s="7">
-        <v>22010</v>
+        <v>130198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>57</v>
+        <v>431</v>
       </c>
       <c r="N15" s="7">
-        <v>44258</v>
+        <v>269057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,10 +2389,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D16" s="7">
-        <v>128721</v>
+        <v>178800</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2404,10 +2404,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="I16" s="7">
-        <v>121252</v>
+        <v>182755</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2419,10 +2419,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="N16" s="7">
-        <v>249973</v>
+        <v>361555</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2437,13 +2437,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>10138</v>
+        <v>16272</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2455,10 +2455,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>8946</v>
+        <v>16092</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2470,10 +2470,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>19084</v>
+        <v>32364</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2491,49 +2491,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="D18" s="7">
-        <v>138859</v>
+        <v>195072</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="I18" s="7">
-        <v>130198</v>
+        <v>198847</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>431</v>
+        <v>547</v>
       </c>
       <c r="N18" s="7">
-        <v>269057</v>
+        <v>393919</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>587672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>105</v>
@@ -2592,7 +2592,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>81</v>
@@ -2616,7 +2616,7 @@
         <v>54177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>113</v>
@@ -2652,13 +2652,13 @@
         <v>677531</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>958</v>
@@ -2667,13 +2667,13 @@
         <v>641849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1977</v>
@@ -2682,13 +2682,13 @@
         <v>1319380</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304166D8-A5A3-4171-93C0-E0582967C765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737A0E4-8918-43E8-8529-83B2A55802AF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,10 +2827,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>192949</v>
+        <v>20758</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>119</v>
@@ -2842,10 +2842,10 @@
         <v>121</v>
       </c>
       <c r="H4" s="7">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>168816</v>
+        <v>19441</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>122</v>
@@ -2854,73 +2854,73 @@
         <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>45</v>
+      </c>
+      <c r="N4" s="7">
+        <v>40199</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="7">
-        <v>541</v>
-      </c>
-      <c r="N4" s="7">
-        <v>361765</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>19136</v>
+        <v>2944</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>20879</v>
+        <v>1356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>131</v>
       </c>
       <c r="M5" s="7">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>40015</v>
+        <v>4300</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,54 +2929,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>307</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>212085</v>
+        <v>23702</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>189695</v>
+        <v>20797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>401780</v>
+        <v>44499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2988,13 +2988,13 @@
         <v>105187</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -3003,13 +3003,13 @@
         <v>100365</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>291</v>
@@ -3018,19 +3018,19 @@
         <v>205552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -3039,13 +3039,13 @@
         <v>13238</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3054,13 +3054,13 @@
         <v>12006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -3069,13 +3069,13 @@
         <v>25244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3090,13 @@
         <v>118425</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>157</v>
@@ -3105,13 +3105,13 @@
         <v>112371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>325</v>
@@ -3120,117 +3120,117 @@
         <v>230796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D10" s="7">
-        <v>180752</v>
+        <v>192949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="I10" s="7">
-        <v>179114</v>
+        <v>168816</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="N10" s="7">
-        <v>359866</v>
+        <v>361765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>13607</v>
+        <v>19136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>12586</v>
+        <v>20879</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N11" s="7">
-        <v>26193</v>
+        <v>40015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,153 +3239,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="D12" s="7">
-        <v>194359</v>
+        <v>212085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="I12" s="7">
-        <v>191700</v>
+        <v>189695</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="N12" s="7">
-        <v>386059</v>
+        <v>401780</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>20758</v>
+        <v>135261</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>202</v>
+      </c>
+      <c r="I13" s="7">
+        <v>129989</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19441</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="N13" s="7">
-        <v>40199</v>
+        <v>265250</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>2944</v>
+        <v>17032</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>23</v>
+      </c>
+      <c r="I14" s="7">
+        <v>14669</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1356</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>49</v>
+      </c>
+      <c r="N14" s="7">
+        <v>31701</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4300</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,49 +3394,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>23702</v>
+        <v>152293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>20797</v>
+        <v>144658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>44499</v>
+        <v>296951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,94 +3447,94 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="D16" s="7">
-        <v>135261</v>
+        <v>180752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>234</v>
+      </c>
+      <c r="I16" s="7">
+        <v>179114</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="7">
-        <v>202</v>
-      </c>
-      <c r="I16" s="7">
-        <v>129989</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>482</v>
+      </c>
+      <c r="N16" s="7">
+        <v>359866</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M16" s="7">
-        <v>412</v>
-      </c>
-      <c r="N16" s="7">
-        <v>265250</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>17032</v>
+        <v>13607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="7">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>12586</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14669</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>32</v>
+      </c>
+      <c r="N17" s="7">
+        <v>26193</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="M17" s="7">
-        <v>49</v>
-      </c>
-      <c r="N17" s="7">
-        <v>31701</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>195</v>
@@ -3549,49 +3549,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D18" s="7">
-        <v>152293</v>
+        <v>194359</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>144658</v>
+        <v>191700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="N18" s="7">
-        <v>296951</v>
+        <v>386059</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3650,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>91</v>
@@ -3710,13 +3710,13 @@
         <v>700864</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>949</v>
@@ -3725,13 +3725,13 @@
         <v>659221</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1950</v>
@@ -3740,13 +3740,13 @@
         <v>1360085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F05264D-22B3-4968-9535-826EB9735C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6115B-598D-49DE-A79C-074F3D594523}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,10 +3885,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>194653</v>
+        <v>20977</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>216</v>
@@ -3897,31 +3897,31 @@
         <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17514</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="7">
-        <v>276</v>
-      </c>
-      <c r="I4" s="7">
-        <v>172024</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>44</v>
+      </c>
+      <c r="N4" s="7">
+        <v>38491</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M4" s="7">
-        <v>563</v>
-      </c>
-      <c r="N4" s="7">
-        <v>366677</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>222</v>
@@ -3933,46 +3933,46 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>15380</v>
+        <v>1802</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2939</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="7">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22539</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4741</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="M5" s="7">
-        <v>59</v>
-      </c>
-      <c r="N5" s="7">
-        <v>37919</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>230</v>
@@ -3987,54 +3987,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>210033</v>
+        <v>22779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>194563</v>
+        <v>20453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>622</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>404596</v>
+        <v>43232</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4052,7 +4052,7 @@
         <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>134</v>
@@ -4088,7 +4088,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -4100,7 +4100,7 @@
         <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>241</v>
@@ -4148,13 +4148,13 @@
         <v>116331</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -4163,13 +4163,13 @@
         <v>103187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -4178,27 +4178,27 @@
         <v>219517</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="D10" s="7">
-        <v>168870</v>
+        <v>194653</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>248</v>
@@ -4210,10 +4210,10 @@
         <v>250</v>
       </c>
       <c r="H10" s="7">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="I10" s="7">
-        <v>173414</v>
+        <v>172024</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>251</v>
@@ -4225,31 +4225,31 @@
         <v>253</v>
       </c>
       <c r="M10" s="7">
-        <v>473</v>
+        <v>563</v>
       </c>
       <c r="N10" s="7">
-        <v>342284</v>
+        <v>366677</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>21165</v>
+        <v>15380</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>256</v>
@@ -4261,10 +4261,10 @@
         <v>258</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>19069</v>
+        <v>22539</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>259</v>
@@ -4276,16 +4276,16 @@
         <v>261</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N11" s="7">
-        <v>40234</v>
+        <v>37919</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>263</v>
@@ -4297,63 +4297,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>190035</v>
+        <v>210033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>192483</v>
+        <v>194563</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>528</v>
+        <v>622</v>
       </c>
       <c r="N12" s="7">
-        <v>382518</v>
+        <v>404596</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="D13" s="7">
-        <v>20977</v>
+        <v>143465</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>264</v>
@@ -4362,31 +4362,31 @@
         <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="I13" s="7">
-        <v>17514</v>
+        <v>133653</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="N13" s="7">
-        <v>38491</v>
+        <v>277118</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>270</v>
@@ -4398,46 +4398,46 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>1802</v>
+        <v>16962</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>2939</v>
+        <v>14514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>4741</v>
+        <v>31476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>278</v>
@@ -4452,49 +4452,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>22779</v>
+        <v>160427</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>20453</v>
+        <v>148167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="N15" s="7">
-        <v>43232</v>
+        <v>308594</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,10 +4505,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D16" s="7">
-        <v>143465</v>
+        <v>168870</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>280</v>
@@ -4520,10 +4520,10 @@
         <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="I16" s="7">
-        <v>133653</v>
+        <v>173414</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>283</v>
@@ -4535,31 +4535,31 @@
         <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="N16" s="7">
-        <v>277118</v>
+        <v>342284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>16962</v>
+        <v>21165</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>288</v>
@@ -4571,10 +4571,10 @@
         <v>290</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>14514</v>
+        <v>19069</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>291</v>
@@ -4586,16 +4586,16 @@
         <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N17" s="7">
-        <v>31476</v>
+        <v>40234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>295</v>
@@ -4607,49 +4607,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="D18" s="7">
-        <v>160427</v>
+        <v>190035</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>148167</v>
+        <v>192483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="N18" s="7">
-        <v>308594</v>
+        <v>382518</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4708,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>95</v>
@@ -4768,13 +4768,13 @@
         <v>699605</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>989</v>
@@ -4783,13 +4783,13 @@
         <v>658852</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1987</v>
@@ -4798,13 +4798,13 @@
         <v>1358457</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4825,7 +4825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A227A2-8992-4174-9143-EB49785BAD4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A55EED-C3F7-46D8-B587-92574637F4EA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,97 +4943,97 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>224271</v>
+        <v>10794</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>178976</v>
+        <v>15952</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>560</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>403247</v>
+        <v>26745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>18777</v>
+        <v>636</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>9289</v>
+        <v>835</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>28066</v>
+        <v>1472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>326</v>
@@ -5045,54 +5045,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>243048</v>
+        <v>11430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>188265</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>598</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>431313</v>
+        <v>28217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5107,7 +5107,7 @@
         <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>328</v>
@@ -5146,7 +5146,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -5161,7 +5161,7 @@
         <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5206,13 +5206,13 @@
         <v>112392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -5221,13 +5221,13 @@
         <v>101649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -5236,117 +5236,117 @@
         <v>214041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>162412</v>
+        <v>224271</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>257</v>
+      </c>
+      <c r="I10" s="7">
+        <v>178976</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H10" s="7">
-        <v>228</v>
-      </c>
-      <c r="I10" s="7">
-        <v>164129</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>560</v>
+      </c>
+      <c r="N10" s="7">
+        <v>403247</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M10" s="7">
-        <v>451</v>
-      </c>
-      <c r="N10" s="7">
-        <v>326540</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>9533</v>
+        <v>18777</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9289</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="7">
+        <v>38</v>
+      </c>
+      <c r="N11" s="7">
+        <v>28066</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5258</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14792</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,153 +5355,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>171945</v>
+        <v>243048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>169387</v>
+        <v>188265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>468</v>
+        <v>598</v>
       </c>
       <c r="N12" s="7">
-        <v>341332</v>
+        <v>431313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>10794</v>
+        <v>163690</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" s="7">
+        <v>210</v>
+      </c>
+      <c r="I13" s="7">
+        <v>157993</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15952</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>420</v>
+      </c>
+      <c r="N13" s="7">
+        <v>321683</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>26745</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>636</v>
+        <v>7967</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>366</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>835</v>
+        <v>7859</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>1472</v>
+        <v>15826</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,49 +5510,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>11430</v>
+        <v>171657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>165852</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>28217</v>
+        <v>337509</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,91 +5563,91 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D16" s="7">
-        <v>163690</v>
+        <v>162412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="I16" s="7">
-        <v>157993</v>
+        <v>164129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="N16" s="7">
-        <v>321683</v>
+        <v>326540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>7967</v>
+        <v>9533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>7859</v>
+        <v>5258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>15826</v>
+        <v>14792</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>386</v>
@@ -5665,49 +5665,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>171657</v>
+        <v>171945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>165852</v>
+        <v>169387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N18" s="7">
-        <v>337509</v>
+        <v>341332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,7 +5766,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>54</v>
@@ -5826,13 +5826,13 @@
         <v>710472</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>918</v>
@@ -5841,13 +5841,13 @@
         <v>641940</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1863</v>
@@ -5856,13 +5856,13 @@
         <v>1352412</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF95D63C-2607-4529-B12A-7765BD0CEF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFB708C-75EC-4F85-BC96-CBC30FFD5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5F251499-5253-4337-8D71-BD08CD9C61EB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD482495-BD3C-4002-90C9-F3FF3323808D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="406">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
@@ -71,6 +71,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,1180 +110,1153 @@
     <t>91,56%</t>
   </si>
   <si>
-    <t>72,02%</t>
+    <t>75,51%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>87,38%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
     <t>93,1%</t>
   </si>
   <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>98,53%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1267,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1366,39 +1363,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1450,7 +1447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1561,13 +1558,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1576,6 +1566,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1640,19 +1637,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6518DC6-2A13-4DD2-AE1F-4A85ADFE8514}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984D3FD6-D91D-4B68-A9A4-23549C030F21}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1769,10 +1786,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>22248</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1784,34 +1801,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>20152</v>
+        <v>1858</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>42400</v>
+        <v>1858</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,10 +1837,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>22248</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1835,34 +1852,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>1858</v>
+        <v>20152</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>1858</v>
+        <v>42400</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1894,13 @@
         <v>22248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -1892,13 +1909,13 @@
         <v>22010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -1907,13 +1924,13 @@
         <v>44258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>110955</v>
+        <v>8221</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1939,10 +1956,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>95926</v>
+        <v>9738</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1954,10 +1971,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>206880</v>
+        <v>17959</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1975,10 +1992,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D8" s="7">
-        <v>8221</v>
+        <v>110955</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1990,10 +2007,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="I8" s="7">
-        <v>9738</v>
+        <v>95926</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -2005,10 +2022,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="N8" s="7">
-        <v>17959</v>
+        <v>206880</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -2032,13 +2049,13 @@
         <v>119176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>158</v>
@@ -2047,13 +2064,13 @@
         <v>105664</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>339</v>
@@ -2062,13 +2079,13 @@
         <v>224839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,10 +2096,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>182721</v>
+        <v>19456</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -2094,10 +2111,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>167587</v>
+        <v>17544</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -2109,10 +2126,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>546</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>350308</v>
+        <v>37000</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2130,10 +2147,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="D11" s="7">
-        <v>19456</v>
+        <v>182721</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -2145,10 +2162,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="I11" s="7">
-        <v>17544</v>
+        <v>167587</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -2160,10 +2177,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>546</v>
       </c>
       <c r="N11" s="7">
-        <v>37000</v>
+        <v>350308</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -2187,13 +2204,13 @@
         <v>202177</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>296</v>
@@ -2202,13 +2219,13 @@
         <v>185131</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>603</v>
@@ -2217,13 +2234,13 @@
         <v>387308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,10 +2251,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>128721</v>
+        <v>10138</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -2249,10 +2266,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>121252</v>
+        <v>8946</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -2264,10 +2281,10 @@
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>400</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>249973</v>
+        <v>19084</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>71</v>
@@ -2285,10 +2302,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>10138</v>
+        <v>128721</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -2300,10 +2317,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>8946</v>
+        <v>121252</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2315,10 +2332,10 @@
         <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="N14" s="7">
-        <v>19084</v>
+        <v>249973</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -2342,13 +2359,13 @@
         <v>138859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>216</v>
@@ -2357,13 +2374,13 @@
         <v>130198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>431</v>
@@ -2372,13 +2389,13 @@
         <v>269057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,10 +2406,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>178800</v>
+        <v>16272</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2404,10 +2421,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>182755</v>
+        <v>16092</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2419,10 +2436,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>503</v>
+        <v>44</v>
       </c>
       <c r="N16" s="7">
-        <v>361555</v>
+        <v>32364</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2440,10 +2457,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>16272</v>
+        <v>178800</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2455,10 +2472,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I17" s="7">
-        <v>16092</v>
+        <v>182755</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2470,10 +2487,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>503</v>
       </c>
       <c r="N17" s="7">
-        <v>32364</v>
+        <v>361555</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2497,13 +2514,13 @@
         <v>195072</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>260</v>
@@ -2512,13 +2529,13 @@
         <v>198847</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>547</v>
@@ -2527,13 +2544,13 @@
         <v>393919</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,10 +2561,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>938</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>623444</v>
+        <v>54087</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -2556,37 +2573,37 @@
         <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
-        <v>877</v>
+        <v>81</v>
       </c>
       <c r="I19" s="7">
-        <v>587672</v>
+        <v>54177</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>162</v>
+      </c>
+      <c r="N19" s="7">
+        <v>108264</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="7">
-        <v>1815</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1211116</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,49 +2612,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>938</v>
+      </c>
+      <c r="D20" s="7">
+        <v>623444</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="7">
-        <v>54087</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="H20" s="7">
-        <v>81</v>
+        <v>877</v>
       </c>
       <c r="I20" s="7">
-        <v>54177</v>
+        <v>587672</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1815</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1211116</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="7">
-        <v>162</v>
-      </c>
-      <c r="N20" s="7">
-        <v>108264</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2669,13 @@
         <v>677531</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>958</v>
@@ -2667,13 +2684,13 @@
         <v>641849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1977</v>
@@ -2682,13 +2699,18 @@
         <v>1319380</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2709,8 +2731,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737A0E4-8918-43E8-8529-83B2A55802AF}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D565A95-1754-4321-9748-2FD690B713DA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2726,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2827,49 +2849,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>20758</v>
+        <v>2944</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1356</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="7">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19441</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4300</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>45</v>
-      </c>
-      <c r="N4" s="7">
-        <v>40199</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,49 +2900,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>2944</v>
+        <v>20758</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19441</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1356</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>45</v>
+      </c>
+      <c r="N5" s="7">
+        <v>40199</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4300</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2957,13 @@
         <v>23702</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -2950,13 +2972,13 @@
         <v>20797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -2965,13 +2987,13 @@
         <v>44499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,49 +3004,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>105187</v>
+        <v>13238</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12006</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="7">
+      <c r="K7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="7">
+        <v>34</v>
+      </c>
+      <c r="N7" s="7">
+        <v>25244</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="7">
-        <v>100365</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="7">
-        <v>291</v>
-      </c>
-      <c r="N7" s="7">
-        <v>205552</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,49 +3055,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7">
-        <v>13238</v>
+        <v>105187</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>141</v>
+      </c>
+      <c r="I8" s="7">
+        <v>100365</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12006</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>291</v>
+      </c>
+      <c r="N8" s="7">
+        <v>205552</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M8" s="7">
-        <v>34</v>
-      </c>
-      <c r="N8" s="7">
-        <v>25244</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3112,13 @@
         <v>118425</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>157</v>
@@ -3105,13 +3127,13 @@
         <v>112371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>325</v>
@@ -3120,13 +3142,13 @@
         <v>230796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,49 +3159,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>192949</v>
+        <v>19136</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>31</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20879</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="7">
-        <v>262</v>
-      </c>
-      <c r="I10" s="7">
-        <v>168816</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>59</v>
+      </c>
+      <c r="N10" s="7">
+        <v>40015</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M10" s="7">
-        <v>541</v>
-      </c>
-      <c r="N10" s="7">
-        <v>361765</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,49 +3210,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="D11" s="7">
-        <v>19136</v>
+        <v>192949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="I11" s="7">
-        <v>20879</v>
+        <v>168816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
-        <v>59</v>
+        <v>541</v>
       </c>
       <c r="N11" s="7">
-        <v>40015</v>
+        <v>361765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3267,13 @@
         <v>212085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>293</v>
@@ -3260,13 +3282,13 @@
         <v>189695</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>600</v>
@@ -3275,13 +3297,13 @@
         <v>401780</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,49 +3314,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>135261</v>
+        <v>17032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>129989</v>
+        <v>14669</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>412</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>265250</v>
+        <v>31701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,49 +3365,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="D14" s="7">
-        <v>17032</v>
+        <v>135261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I14" s="7">
-        <v>14669</v>
+        <v>129989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="N14" s="7">
-        <v>31701</v>
+        <v>265250</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3422,13 @@
         <v>152293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>225</v>
@@ -3415,13 +3437,13 @@
         <v>144658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -3430,13 +3452,13 @@
         <v>296951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,49 +3469,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>180752</v>
+        <v>13607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>179114</v>
+        <v>12586</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
-        <v>482</v>
+        <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>359866</v>
+        <v>26193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,49 +3520,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="D17" s="7">
-        <v>13607</v>
+        <v>180752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I17" s="7">
-        <v>12586</v>
+        <v>179114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="N17" s="7">
-        <v>26193</v>
+        <v>359866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3577,13 @@
         <v>194359</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>250</v>
@@ -3570,13 +3592,13 @@
         <v>191700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>514</v>
@@ -3585,13 +3607,13 @@
         <v>386059</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,49 +3624,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>910</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7">
-        <v>634906</v>
+        <v>65958</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
-        <v>861</v>
+        <v>88</v>
       </c>
       <c r="I19" s="7">
-        <v>597726</v>
+        <v>61495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
-        <v>1771</v>
+        <v>179</v>
       </c>
       <c r="N19" s="7">
-        <v>1232632</v>
+        <v>127453</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,49 +3675,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>91</v>
+        <v>910</v>
       </c>
       <c r="D20" s="7">
-        <v>65958</v>
+        <v>634906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
-        <v>88</v>
+        <v>861</v>
       </c>
       <c r="I20" s="7">
-        <v>61495</v>
+        <v>597725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
-        <v>179</v>
+        <v>1771</v>
       </c>
       <c r="N20" s="7">
-        <v>127453</v>
+        <v>1232632</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,28 +3732,28 @@
         <v>700864</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>949</v>
       </c>
       <c r="I21" s="7">
-        <v>659221</v>
+        <v>659220</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1950</v>
@@ -3740,13 +3762,18 @@
         <v>1360085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3767,8 +3794,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6115B-598D-49DE-A79C-074F3D594523}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799FF97-0D19-48BD-92A6-A85E23100718}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3784,7 +3811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,49 +3912,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>20977</v>
+        <v>1802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>17514</v>
+        <v>2939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>38491</v>
+        <v>4741</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3963,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>1802</v>
+        <v>20977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>2939</v>
+        <v>17514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>4741</v>
+        <v>38491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4020,13 @@
         <v>22779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4008,13 +4035,13 @@
         <v>20453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -4023,13 +4050,13 @@
         <v>43232</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +4067,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>103687</v>
+        <v>12644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>93066</v>
+        <v>10121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>196752</v>
+        <v>22765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +4118,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7">
-        <v>12644</v>
+        <v>103687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I8" s="7">
-        <v>10121</v>
+        <v>93066</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="N8" s="7">
-        <v>22765</v>
+        <v>196752</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4175,13 @@
         <v>116331</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -4163,13 +4190,13 @@
         <v>103187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -4178,13 +4205,13 @@
         <v>219517</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,28 +4222,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>194653</v>
+        <v>15380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>172024</v>
+        <v>22539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>252</v>
@@ -4225,13 +4252,13 @@
         <v>253</v>
       </c>
       <c r="M10" s="7">
-        <v>563</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>366677</v>
+        <v>37919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>254</v>
@@ -4246,10 +4273,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="D11" s="7">
-        <v>15380</v>
+        <v>194653</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>256</v>
@@ -4261,34 +4288,34 @@
         <v>258</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="I11" s="7">
-        <v>22539</v>
+        <v>172024</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>563</v>
+      </c>
+      <c r="N11" s="7">
+        <v>366677</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="M11" s="7">
-        <v>59</v>
-      </c>
-      <c r="N11" s="7">
-        <v>37919</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4330,13 @@
         <v>210033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -4318,13 +4345,13 @@
         <v>194563</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>622</v>
@@ -4333,13 +4360,13 @@
         <v>404596</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,49 +4377,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>143465</v>
+        <v>16962</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14514</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="7">
-        <v>221</v>
-      </c>
-      <c r="I13" s="7">
-        <v>133653</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>47</v>
+      </c>
+      <c r="N13" s="7">
+        <v>31476</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M13" s="7">
-        <v>435</v>
-      </c>
-      <c r="N13" s="7">
-        <v>277118</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,49 +4428,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>16962</v>
+        <v>143465</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>221</v>
+      </c>
+      <c r="I14" s="7">
+        <v>133653</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H14" s="7">
-        <v>23</v>
-      </c>
-      <c r="I14" s="7">
-        <v>14514</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="7">
+        <v>435</v>
+      </c>
+      <c r="N14" s="7">
+        <v>277118</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M14" s="7">
-        <v>47</v>
-      </c>
-      <c r="N14" s="7">
-        <v>31476</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4485,13 @@
         <v>160427</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>244</v>
@@ -4473,13 +4500,13 @@
         <v>148167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>482</v>
@@ -4488,13 +4515,13 @@
         <v>308594</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,49 +4532,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>168870</v>
+        <v>21165</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19069</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H16" s="7">
-        <v>235</v>
-      </c>
-      <c r="I16" s="7">
-        <v>173414</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7">
+        <v>40234</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M16" s="7">
-        <v>473</v>
-      </c>
-      <c r="N16" s="7">
-        <v>342284</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,10 +4583,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D17" s="7">
-        <v>21165</v>
+        <v>168870</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>288</v>
@@ -4571,10 +4598,10 @@
         <v>290</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="I17" s="7">
-        <v>19069</v>
+        <v>173414</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>291</v>
@@ -4586,19 +4613,19 @@
         <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="N17" s="7">
-        <v>40234</v>
+        <v>342284</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4640,13 @@
         <v>190035</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>261</v>
@@ -4628,13 +4655,13 @@
         <v>192483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>528</v>
@@ -4643,13 +4670,13 @@
         <v>382518</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,49 +4687,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>903</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7">
-        <v>631651</v>
+        <v>67954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
-        <v>885</v>
+        <v>104</v>
       </c>
       <c r="I19" s="7">
-        <v>589670</v>
+        <v>69182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
-        <v>1788</v>
+        <v>199</v>
       </c>
       <c r="N19" s="7">
-        <v>1221321</v>
+        <v>137136</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4738,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>95</v>
+        <v>903</v>
       </c>
       <c r="D20" s="7">
-        <v>67954</v>
+        <v>631651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
-        <v>104</v>
+        <v>885</v>
       </c>
       <c r="I20" s="7">
-        <v>69182</v>
+        <v>589670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
-        <v>199</v>
+        <v>1788</v>
       </c>
       <c r="N20" s="7">
-        <v>137136</v>
+        <v>1221321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4795,13 @@
         <v>699605</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>989</v>
@@ -4783,13 +4810,13 @@
         <v>658852</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1987</v>
@@ -4798,13 +4825,18 @@
         <v>1358457</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4825,8 +4857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A55EED-C3F7-46D8-B587-92574637F4EA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A3C0B0-5314-4D4B-8831-8A89A5FDEE81}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4842,7 +4874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4943,49 +4975,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>10794</v>
+        <v>636</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>835</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15952</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1472</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>43</v>
-      </c>
-      <c r="N4" s="7">
-        <v>26745</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,49 +5026,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>636</v>
+        <v>10794</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>835</v>
+        <v>15952</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>1472</v>
+        <v>26745</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5083,13 @@
         <v>11430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -5066,13 +5098,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -5081,13 +5113,13 @@
         <v>28217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,49 +5130,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>106620</v>
+        <v>5772</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="G7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5740</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H7" s="7">
-        <v>152</v>
-      </c>
-      <c r="I7" s="7">
-        <v>95909</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>18</v>
+      </c>
+      <c r="N7" s="7">
+        <v>11512</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="M7" s="7">
-        <v>291</v>
-      </c>
-      <c r="N7" s="7">
-        <v>202529</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5181,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7">
-        <v>5772</v>
+        <v>106620</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>152</v>
+      </c>
+      <c r="I8" s="7">
+        <v>95909</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5740</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>291</v>
+      </c>
+      <c r="N8" s="7">
+        <v>202529</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="M8" s="7">
-        <v>18</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11512</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5238,13 @@
         <v>112392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -5221,13 +5253,13 @@
         <v>101649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -5236,13 +5268,13 @@
         <v>214041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,49 +5285,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>224271</v>
+        <v>18777</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>344</v>
       </c>
       <c r="H10" s="7">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>178976</v>
+        <v>9289</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>560</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>403247</v>
+        <v>28066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5336,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="D11" s="7">
-        <v>18777</v>
+        <v>224271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="I11" s="7">
-        <v>9289</v>
+        <v>178976</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>560</v>
       </c>
       <c r="N11" s="7">
-        <v>28066</v>
+        <v>403247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5393,13 @@
         <v>243048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>271</v>
@@ -5376,13 +5408,13 @@
         <v>188265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>598</v>
@@ -5391,13 +5423,13 @@
         <v>431313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,49 +5440,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>163690</v>
+        <v>7967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>157993</v>
+        <v>7859</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
-        <v>420</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>321683</v>
+        <v>15826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5491,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="D14" s="7">
-        <v>7967</v>
+        <v>163690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>7859</v>
+        <v>157993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>420</v>
       </c>
       <c r="N14" s="7">
-        <v>15826</v>
+        <v>321683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5548,13 @@
         <v>171657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>222</v>
@@ -5531,13 +5563,13 @@
         <v>165852</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>443</v>
@@ -5546,13 +5578,13 @@
         <v>337509</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,49 +5595,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>162412</v>
+        <v>9533</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>164129</v>
+        <v>5258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
-        <v>451</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>326540</v>
+        <v>14792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,49 +5646,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="D17" s="7">
-        <v>9533</v>
+        <v>162412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="I17" s="7">
-        <v>5258</v>
+        <v>164129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>451</v>
       </c>
       <c r="N17" s="7">
-        <v>14792</v>
+        <v>326540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5703,13 @@
         <v>171945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>235</v>
@@ -5686,13 +5718,13 @@
         <v>169387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>468</v>
@@ -5701,13 +5733,13 @@
         <v>341332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,25 +5750,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>891</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>667787</v>
+        <v>42685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
-        <v>874</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7">
-        <v>612958</v>
+        <v>28982</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>392</v>
@@ -5748,10 +5780,10 @@
         <v>394</v>
       </c>
       <c r="M19" s="7">
-        <v>1765</v>
+        <v>98</v>
       </c>
       <c r="N19" s="7">
-        <v>1280745</v>
+        <v>71667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>395</v>
@@ -5769,49 +5801,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>54</v>
+        <v>891</v>
       </c>
       <c r="D20" s="7">
-        <v>42685</v>
+        <v>667787</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>874</v>
+      </c>
+      <c r="I20" s="7">
+        <v>612959</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H20" s="7">
-        <v>44</v>
-      </c>
-      <c r="I20" s="7">
-        <v>28982</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1765</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1280745</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M20" s="7">
-        <v>98</v>
-      </c>
-      <c r="N20" s="7">
-        <v>71667</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,28 +5858,28 @@
         <v>710472</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>918</v>
       </c>
       <c r="I21" s="7">
-        <v>641940</v>
+        <v>641941</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1863</v>
@@ -5856,13 +5888,18 @@
         <v>1352412</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFB708C-75EC-4F85-BC96-CBC30FFD5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25F7EF7-0CE5-4B53-BB37-0F900CF6511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD482495-BD3C-4002-90C9-F3FF3323808D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8316C194-F100-408E-B658-7EE986DB3FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -86,13 +86,13 @@
     <t>8,44%</t>
   </si>
   <si>
-    <t>24,49%</t>
+    <t>27,78%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>12,62%</t>
+    <t>12,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,1153 +110,1123 @@
     <t>91,56%</t>
   </si>
   <si>
-    <t>75,51%</t>
+    <t>72,22%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>3,83%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>7,99%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>83,48%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,82%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>94,62%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>96,59%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>97,36%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>97,32%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>4,53%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>95,47%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>94,03%</t>
   </si>
   <si>
     <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984D3FD6-D91D-4B68-A9A4-23549C030F21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66FEC4A-8F2E-4A84-A5AF-205587A3A2FF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2573,7 +2543,7 @@
         <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -2585,10 +2555,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>162</v>
@@ -2597,13 +2567,13 @@
         <v>108264</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2588,13 @@
         <v>623444</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>877</v>
@@ -2636,10 +2606,10 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1815</v>
@@ -2648,13 +2618,13 @@
         <v>1211116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2680,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D565A95-1754-4321-9748-2FD690B713DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAAB915-D5B4-4B95-BB4A-582B80EBF2E2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2748,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2855,13 +2825,13 @@
         <v>2944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2870,13 +2840,13 @@
         <v>1356</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2885,13 +2855,13 @@
         <v>4300</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2876,13 @@
         <v>20758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -2921,10 +2891,10 @@
         <v>19441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2936,13 +2906,13 @@
         <v>40199</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +2980,13 @@
         <v>13238</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3025,13 +2995,13 @@
         <v>12006</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3061,13 +3031,13 @@
         <v>105187</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -3076,13 +3046,13 @@
         <v>100365</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>291</v>
@@ -3091,13 +3061,13 @@
         <v>205552</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3135,13 @@
         <v>19136</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3180,13 +3150,13 @@
         <v>20879</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -3195,13 +3165,13 @@
         <v>40015</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3186,13 @@
         <v>192949</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3231,13 +3201,13 @@
         <v>168816</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>541</v>
@@ -3246,13 +3216,13 @@
         <v>361765</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3290,13 @@
         <v>17032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3335,13 +3305,13 @@
         <v>14669</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3350,13 +3320,13 @@
         <v>31701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3341,13 @@
         <v>135261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3386,13 +3356,13 @@
         <v>129989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>412</v>
@@ -3401,13 +3371,13 @@
         <v>265250</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3445,13 @@
         <v>13607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3490,13 +3460,13 @@
         <v>12586</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -3505,13 +3475,13 @@
         <v>26193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3496,13 @@
         <v>180752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>234</v>
@@ -3541,13 +3511,13 @@
         <v>179114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>482</v>
@@ -3556,13 +3526,13 @@
         <v>359866</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3600,13 @@
         <v>65958</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -3645,13 +3615,13 @@
         <v>61495</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>179</v>
@@ -3660,13 +3630,13 @@
         <v>127453</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3651,13 @@
         <v>634906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>861</v>
@@ -3696,13 +3666,13 @@
         <v>597725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>1771</v>
@@ -3711,13 +3681,13 @@
         <v>1232632</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3743,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799FF97-0D19-48BD-92A6-A85E23100718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C478A-C9EE-43F9-948E-1E489B6D2879}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,7 +3781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,13 +3888,13 @@
         <v>1802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3933,13 +3903,13 @@
         <v>2939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3948,13 +3918,13 @@
         <v>4741</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,10 +3939,10 @@
         <v>20977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3984,13 +3954,13 @@
         <v>17514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3999,13 +3969,13 @@
         <v>38491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4043,13 @@
         <v>12644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4088,13 +4058,13 @@
         <v>10121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4103,13 +4073,13 @@
         <v>22765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4094,13 @@
         <v>103687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>134</v>
@@ -4139,13 +4109,13 @@
         <v>93066</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>273</v>
@@ -4154,13 +4124,13 @@
         <v>196752</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4198,13 @@
         <v>15380</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4243,13 +4213,13 @@
         <v>22539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4258,13 +4228,13 @@
         <v>37919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4249,13 @@
         <v>194653</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -4294,7 +4264,7 @@
         <v>172024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>259</v>
@@ -4309,7 +4279,7 @@
         <v>366677</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>261</v>
@@ -4383,13 +4353,13 @@
         <v>16962</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4398,10 +4368,10 @@
         <v>14514</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>267</v>
@@ -4434,13 +4404,13 @@
         <v>143465</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -4449,13 +4419,13 @@
         <v>133653</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -4553,13 +4523,13 @@
         <v>19069</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -4568,13 +4538,13 @@
         <v>40234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4559,13 @@
         <v>168870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -4604,13 +4574,13 @@
         <v>173414</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>473</v>
@@ -4619,13 +4589,13 @@
         <v>342284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4663,13 @@
         <v>67954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>104</v>
@@ -4708,13 +4678,13 @@
         <v>69182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -4723,13 +4693,13 @@
         <v>137136</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4714,13 @@
         <v>631651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>885</v>
@@ -4759,13 +4729,13 @@
         <v>589670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>1788</v>
@@ -4774,13 +4744,13 @@
         <v>1221321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4806,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +4827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A3C0B0-5314-4D4B-8831-8A89A5FDEE81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC555418-0B20-4559-8CAA-112B990ECFD0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4874,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4981,13 +4951,13 @@
         <v>636</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4996,13 +4966,13 @@
         <v>835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5011,13 +4981,13 @@
         <v>1472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,10 +5002,10 @@
         <v>10794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5047,10 +5017,10 @@
         <v>15952</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5062,10 +5032,10 @@
         <v>26745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5136,13 +5106,13 @@
         <v>5772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5151,13 +5121,13 @@
         <v>5740</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5166,13 +5136,13 @@
         <v>11512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5157,13 @@
         <v>106620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -5202,13 +5172,13 @@
         <v>95909</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>291</v>
@@ -5217,13 +5187,13 @@
         <v>202529</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5261,13 @@
         <v>18777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5306,13 +5276,13 @@
         <v>9289</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5321,13 +5291,13 @@
         <v>28066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5312,13 @@
         <v>224271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -5357,13 +5327,13 @@
         <v>178976</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -5372,13 +5342,13 @@
         <v>403247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5416,13 @@
         <v>7967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5461,13 +5431,13 @@
         <v>7859</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5476,13 +5446,13 @@
         <v>15826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5467,13 @@
         <v>163690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -5512,13 +5482,13 @@
         <v>157993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>420</v>
@@ -5527,13 +5497,13 @@
         <v>321683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5571,13 @@
         <v>9533</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5616,13 +5586,13 @@
         <v>5258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5631,13 +5601,13 @@
         <v>14792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5622,13 @@
         <v>162412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -5667,13 +5637,13 @@
         <v>164129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
@@ -5682,13 +5652,13 @@
         <v>326540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5726,13 @@
         <v>42685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -5771,13 +5741,13 @@
         <v>28982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -5786,13 +5756,13 @@
         <v>71667</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,28 +5777,28 @@
         <v>667787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>874</v>
       </c>
       <c r="I20" s="7">
-        <v>612959</v>
+        <v>612958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>1765</v>
@@ -5837,13 +5807,13 @@
         <v>1280745</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5840,7 @@
         <v>918</v>
       </c>
       <c r="I21" s="7">
-        <v>641941</v>
+        <v>641940</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -5899,7 +5869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25F7EF7-0CE5-4B53-BB37-0F900CF6511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA0C0E5-44DD-4B29-96C4-845168CF74D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8316C194-F100-408E-B658-7EE986DB3FA9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A838CCCC-3032-4AA2-99F4-9214732B62B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="356">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1165 +68,1045 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66FEC4A-8F2E-4A84-A5AF-205587A3A2FF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF8E5E-4378-480D-8898-EF009EC50717}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1756,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>11595</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1771,85 +1651,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1858</v>
+        <v>8221</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>1858</v>
+        <v>19816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>169</v>
+      </c>
+      <c r="D5" s="7">
+        <v>116078</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>197</v>
+      </c>
+      <c r="I5" s="7">
+        <v>133203</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>366</v>
+      </c>
+      <c r="N5" s="7">
+        <v>249281</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="7">
-        <v>22248</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>20152</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>55</v>
-      </c>
-      <c r="N5" s="7">
-        <v>42400</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,153 +1738,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>22248</v>
+        <v>127673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>22010</v>
+        <v>141424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="N6" s="7">
-        <v>44258</v>
+        <v>269097</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>8221</v>
+        <v>17544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
       <c r="I7" s="7">
-        <v>9738</v>
+        <v>19456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>17959</v>
+        <v>37000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="D8" s="7">
-        <v>110955</v>
+        <v>167587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="I8" s="7">
-        <v>95926</v>
+        <v>182721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>311</v>
+        <v>546</v>
       </c>
       <c r="N8" s="7">
-        <v>206880</v>
+        <v>350308</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,153 +1893,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7">
-        <v>119176</v>
+        <v>185131</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>105664</v>
+        <v>202177</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>339</v>
+        <v>603</v>
       </c>
       <c r="N9" s="7">
-        <v>224839</v>
+        <v>387308</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>19456</v>
+        <v>8946</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>17544</v>
+        <v>10138</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
+        <v>31</v>
+      </c>
+      <c r="N10" s="7">
+        <v>19084</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="7">
-        <v>37000</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>182721</v>
+        <v>121252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>167587</v>
+        <v>128721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>546</v>
+        <v>400</v>
       </c>
       <c r="N11" s="7">
-        <v>350308</v>
+        <v>249973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,153 +2048,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="D12" s="7">
-        <v>202177</v>
+        <v>130198</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="I12" s="7">
-        <v>185131</v>
+        <v>138859</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>603</v>
+        <v>431</v>
       </c>
       <c r="N12" s="7">
-        <v>387308</v>
+        <v>269057</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>10138</v>
+        <v>16092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>8946</v>
+        <v>16272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>19084</v>
+        <v>32364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>128721</v>
+        <v>182755</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="I14" s="7">
-        <v>121252</v>
+        <v>178800</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="N14" s="7">
-        <v>249973</v>
+        <v>361555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,153 +2203,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="D15" s="7">
-        <v>138859</v>
+        <v>198847</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="I15" s="7">
-        <v>130198</v>
+        <v>195072</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>431</v>
+        <v>547</v>
       </c>
       <c r="N15" s="7">
-        <v>269057</v>
+        <v>393919</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>16272</v>
+        <v>54177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>16092</v>
+        <v>54087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="N16" s="7">
-        <v>32364</v>
+        <v>108265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>264</v>
+        <v>877</v>
       </c>
       <c r="D17" s="7">
-        <v>178800</v>
+        <v>587672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>239</v>
+        <v>938</v>
       </c>
       <c r="I17" s="7">
-        <v>182755</v>
+        <v>623444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>503</v>
+        <v>1815</v>
       </c>
       <c r="N17" s="7">
-        <v>361555</v>
+        <v>1211116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,217 +2358,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>287</v>
+        <v>958</v>
       </c>
       <c r="D18" s="7">
-        <v>195072</v>
+        <v>641849</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>260</v>
+        <v>1019</v>
       </c>
       <c r="I18" s="7">
-        <v>198847</v>
+        <v>677531</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>547</v>
+        <v>1977</v>
       </c>
       <c r="N18" s="7">
-        <v>393919</v>
+        <v>1319381</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>81</v>
-      </c>
-      <c r="D19" s="7">
-        <v>54087</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>81</v>
-      </c>
-      <c r="I19" s="7">
-        <v>54177</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="7">
-        <v>162</v>
-      </c>
-      <c r="N19" s="7">
-        <v>108264</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>938</v>
-      </c>
-      <c r="D20" s="7">
-        <v>623444</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>877</v>
-      </c>
-      <c r="I20" s="7">
-        <v>587672</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1815</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1211116</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1019</v>
-      </c>
-      <c r="D21" s="7">
-        <v>677531</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>958</v>
-      </c>
-      <c r="I21" s="7">
-        <v>641849</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1977</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1319380</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2701,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAAB915-D5B4-4B95-BB4A-582B80EBF2E2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC64DA4-A575-475B-A4F9-4D7CF3560F73}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2718,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2819,100 +2543,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>2944</v>
+        <v>13362</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>1356</v>
+        <v>16182</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>4300</v>
+        <v>29544</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7">
-        <v>20758</v>
+        <v>119806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="I5" s="7">
-        <v>19441</v>
+        <v>125945</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="N5" s="7">
-        <v>40199</v>
+        <v>245751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,153 +2645,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="D6" s="7">
-        <v>23702</v>
+        <v>133168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I6" s="7">
-        <v>20797</v>
+        <v>142127</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>375</v>
       </c>
       <c r="N6" s="7">
-        <v>44499</v>
+        <v>275295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>13238</v>
+        <v>20879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>12006</v>
+        <v>19136</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>25244</v>
+        <v>40015</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>105187</v>
+        <v>168816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
+        <v>279</v>
+      </c>
+      <c r="I8" s="7">
+        <v>192949</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="7">
+        <v>541</v>
+      </c>
+      <c r="N8" s="7">
+        <v>361765</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="7">
-        <v>100365</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="7">
-        <v>291</v>
-      </c>
-      <c r="N8" s="7">
-        <v>205552</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,153 +2800,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="D9" s="7">
-        <v>118425</v>
+        <v>189695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>112371</v>
+        <v>212085</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>325</v>
+        <v>600</v>
       </c>
       <c r="N9" s="7">
-        <v>230796</v>
+        <v>401780</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>19136</v>
+        <v>14669</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>20879</v>
+        <v>17032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>40015</v>
+        <v>31701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>192949</v>
+        <v>129989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>168816</v>
+        <v>135261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
-        <v>541</v>
+        <v>412</v>
       </c>
       <c r="N11" s="7">
-        <v>361765</v>
+        <v>265250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,153 +2955,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>212085</v>
+        <v>144658</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>189695</v>
+        <v>152293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>600</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>401780</v>
+        <v>296951</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>17032</v>
+        <v>12586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>14669</v>
+        <v>13607</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>31701</v>
+        <v>26193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>135261</v>
+        <v>179114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>129989</v>
+        <v>180752</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="N14" s="7">
-        <v>265250</v>
+        <v>359866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,153 +3110,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7">
-        <v>152293</v>
+        <v>191700</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="I15" s="7">
-        <v>144658</v>
+        <v>194359</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="N15" s="7">
-        <v>296951</v>
+        <v>386059</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>13607</v>
+        <v>61495</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>91</v>
+      </c>
+      <c r="I16" s="7">
+        <v>65958</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="7">
+        <v>179</v>
+      </c>
+      <c r="N16" s="7">
+        <v>127453</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12586</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M16" s="7">
-        <v>32</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26193</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>248</v>
+        <v>861</v>
       </c>
       <c r="D17" s="7">
-        <v>180752</v>
+        <v>597726</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
+        <v>910</v>
+      </c>
+      <c r="I17" s="7">
+        <v>634906</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1771</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1232632</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>234</v>
-      </c>
-      <c r="I17" s="7">
-        <v>179114</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M17" s="7">
-        <v>482</v>
-      </c>
-      <c r="N17" s="7">
-        <v>359866</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,217 +3265,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>264</v>
+        <v>949</v>
       </c>
       <c r="D18" s="7">
-        <v>194359</v>
+        <v>659221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>250</v>
+        <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>191700</v>
+        <v>700864</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>514</v>
+        <v>1950</v>
       </c>
       <c r="N18" s="7">
-        <v>386059</v>
+        <v>1360085</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>91</v>
-      </c>
-      <c r="D19" s="7">
-        <v>65958</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="7">
-        <v>88</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61495</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="7">
-        <v>179</v>
-      </c>
-      <c r="N19" s="7">
-        <v>127453</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>910</v>
-      </c>
-      <c r="D20" s="7">
-        <v>634906</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="7">
-        <v>861</v>
-      </c>
-      <c r="I20" s="7">
-        <v>597725</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1771</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1232632</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1001</v>
-      </c>
-      <c r="D21" s="7">
-        <v>700864</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>949</v>
-      </c>
-      <c r="I21" s="7">
-        <v>659220</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1950</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1360085</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3764,8 +3332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C478A-C9EE-43F9-948E-1E489B6D2879}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9342961E-6FA8-4E96-9702-5CE83E2404E9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3781,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3882,100 +3450,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>1802</v>
+        <v>13060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>2939</v>
+        <v>14446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>4741</v>
+        <v>27506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>20977</v>
+        <v>110579</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="I5" s="7">
-        <v>17514</v>
+        <v>124664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="N5" s="7">
-        <v>38491</v>
+        <v>235243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,153 +3552,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>22779</v>
+        <v>123639</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>20453</v>
+        <v>139110</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>49</v>
+        <v>355</v>
       </c>
       <c r="N6" s="7">
-        <v>43232</v>
+        <v>262749</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>12644</v>
+        <v>22539</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>10121</v>
+        <v>15380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>22765</v>
+        <v>37919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="D8" s="7">
-        <v>103687</v>
+        <v>172024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="I8" s="7">
-        <v>93066</v>
+        <v>194653</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>273</v>
+        <v>563</v>
       </c>
       <c r="N8" s="7">
-        <v>196752</v>
+        <v>366677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,54 +3707,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>116331</v>
+        <v>194563</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="I9" s="7">
-        <v>103187</v>
+        <v>210033</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>306</v>
+        <v>622</v>
       </c>
       <c r="N9" s="7">
-        <v>219517</v>
+        <v>404596</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4195,97 +3763,97 @@
         <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>15380</v>
+        <v>14514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>22539</v>
+        <v>16962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>37919</v>
+        <v>31476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>194653</v>
+        <v>133653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="I11" s="7">
-        <v>172024</v>
+        <v>143465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
-        <v>563</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>366677</v>
+        <v>277118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,153 +3862,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>210033</v>
+        <v>148167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>194563</v>
+        <v>160427</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="N12" s="7">
-        <v>404596</v>
+        <v>308594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>16962</v>
+        <v>19069</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>14514</v>
+        <v>21165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>31476</v>
+        <v>40234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>143465</v>
+        <v>173414</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="7">
+        <v>238</v>
+      </c>
+      <c r="I14" s="7">
+        <v>168870</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M14" s="7">
+        <v>473</v>
+      </c>
+      <c r="N14" s="7">
+        <v>342284</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H14" s="7">
-        <v>221</v>
-      </c>
-      <c r="I14" s="7">
-        <v>133653</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M14" s="7">
-        <v>435</v>
-      </c>
-      <c r="N14" s="7">
-        <v>277118</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,153 +4017,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>160427</v>
+        <v>192483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="I15" s="7">
-        <v>148167</v>
+        <v>190035</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="N15" s="7">
-        <v>308594</v>
+        <v>382518</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>21165</v>
+        <v>69182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>19069</v>
+        <v>67954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="N16" s="7">
-        <v>40234</v>
+        <v>137136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>238</v>
+        <v>885</v>
       </c>
       <c r="D17" s="7">
-        <v>168870</v>
+        <v>589670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>235</v>
+        <v>903</v>
       </c>
       <c r="I17" s="7">
-        <v>173414</v>
+        <v>631651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>473</v>
+        <v>1788</v>
       </c>
       <c r="N17" s="7">
-        <v>342284</v>
+        <v>1221321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,217 +4172,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>267</v>
+        <v>989</v>
       </c>
       <c r="D18" s="7">
-        <v>190035</v>
+        <v>658852</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>192483</v>
+        <v>699605</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>528</v>
+        <v>1987</v>
       </c>
       <c r="N18" s="7">
-        <v>382518</v>
+        <v>1358457</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>67954</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="7">
-        <v>104</v>
-      </c>
-      <c r="I19" s="7">
-        <v>69182</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M19" s="7">
-        <v>199</v>
-      </c>
-      <c r="N19" s="7">
-        <v>137136</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>903</v>
-      </c>
-      <c r="D20" s="7">
-        <v>631651</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H20" s="7">
-        <v>885</v>
-      </c>
-      <c r="I20" s="7">
-        <v>589670</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1788</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1221321</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>998</v>
-      </c>
-      <c r="D21" s="7">
-        <v>699605</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>989</v>
-      </c>
-      <c r="I21" s="7">
-        <v>658852</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1987</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1358457</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4827,8 +4239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC555418-0B20-4559-8CAA-112B990ECFD0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90BB658-637B-4ED1-93AB-8C6644466A06}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4844,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4945,100 +4357,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>636</v>
+        <v>6448</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>835</v>
+        <v>6936</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>1472</v>
+        <v>13384</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7">
-        <v>10794</v>
+        <v>108622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="I5" s="7">
-        <v>15952</v>
+        <v>129821</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="N5" s="7">
-        <v>26745</v>
+        <v>238443</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,153 +4459,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7">
-        <v>11430</v>
+        <v>115070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>136757</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="N6" s="7">
-        <v>28217</v>
+        <v>251827</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>5772</v>
+        <v>9197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>5740</v>
+        <v>19670</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>11512</v>
+        <v>28867</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="D8" s="7">
-        <v>106620</v>
+        <v>177182</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="I8" s="7">
-        <v>95909</v>
+        <v>227991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
-        <v>291</v>
+        <v>560</v>
       </c>
       <c r="N8" s="7">
-        <v>202529</v>
+        <v>405173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,153 +4614,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>112392</v>
+        <v>186379</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>327</v>
       </c>
       <c r="I9" s="7">
-        <v>101649</v>
+        <v>247661</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>598</v>
       </c>
       <c r="N9" s="7">
-        <v>214041</v>
+        <v>434040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>18777</v>
+        <v>7717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>9289</v>
+        <v>8334</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>28066</v>
+        <v>16051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>224271</v>
+        <v>179849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>178976</v>
+        <v>175369</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="N11" s="7">
-        <v>403247</v>
+        <v>355218</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,153 +4769,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>243048</v>
+        <v>187566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>188265</v>
+        <v>183703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>598</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>431313</v>
+        <v>371269</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>7967</v>
+        <v>5092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>7859</v>
+        <v>9818</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>15826</v>
+        <v>14910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>163690</v>
+        <v>160288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7">
-        <v>157993</v>
+        <v>168045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="N14" s="7">
-        <v>321683</v>
+        <v>328333</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,153 +4924,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171657</v>
+        <v>165380</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>165852</v>
+        <v>177863</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>337509</v>
+        <v>343243</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>9533</v>
+        <v>28454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>5258</v>
+        <v>44758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N16" s="7">
-        <v>14792</v>
+        <v>73212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>223</v>
+        <v>874</v>
       </c>
       <c r="D17" s="7">
-        <v>162412</v>
+        <v>625942</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
-        <v>228</v>
+        <v>891</v>
       </c>
       <c r="I17" s="7">
-        <v>164129</v>
+        <v>701226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
-        <v>451</v>
+        <v>1765</v>
       </c>
       <c r="N17" s="7">
-        <v>326540</v>
+        <v>1327167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,217 +5079,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>233</v>
+        <v>918</v>
       </c>
       <c r="D18" s="7">
-        <v>171945</v>
+        <v>654396</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>945</v>
       </c>
       <c r="I18" s="7">
-        <v>169387</v>
+        <v>745984</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>468</v>
+        <v>1863</v>
       </c>
       <c r="N18" s="7">
-        <v>341332</v>
+        <v>1400379</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>54</v>
-      </c>
-      <c r="D19" s="7">
-        <v>42685</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H19" s="7">
-        <v>44</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28982</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M19" s="7">
-        <v>98</v>
-      </c>
-      <c r="N19" s="7">
-        <v>71667</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>891</v>
-      </c>
-      <c r="D20" s="7">
-        <v>667787</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="7">
-        <v>874</v>
-      </c>
-      <c r="I20" s="7">
-        <v>612958</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1765</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1280745</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>945</v>
-      </c>
-      <c r="D21" s="7">
-        <v>710472</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>918</v>
-      </c>
-      <c r="I21" s="7">
-        <v>641940</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1863</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1352412</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
